--- a/backend/股票002920_杜邦分析全量数据.xlsx
+++ b/backend/股票002920_杜邦分析全量数据.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>178,771.52万</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>122,255.91万</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>58,224.85万</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>200,487.53万</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>140,680.70万</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>83,842.03万</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>38,477.10万</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>154,673.60万</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>96,032.86万</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>60,706.42万</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
